--- a/stundenplan.xlsx
+++ b/stundenplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masoumeh/PycharmProjects/MeetUpPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C735290-5634-B849-B5D4-6936D24C3A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779BB9A-33CD-824D-818B-9DD9B7256261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{BA891477-1CC8-1B4C-AA7F-14F6FC78A2D1}"/>
+    <workbookView xWindow="11480" yWindow="1820" windowWidth="28040" windowHeight="16180" xr2:uid="{BA891477-1CC8-1B4C-AA7F-14F6FC78A2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="18">
   <si>
     <t>Person</t>
   </si>
@@ -50,32 +50,56 @@
     <t>Ende</t>
   </si>
   <si>
-    <t>Anna</t>
-  </si>
-  <si>
     <t>Montag</t>
   </si>
   <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
     <t>Dienstag</t>
   </si>
   <si>
-    <t>mary</t>
-  </si>
-  <si>
     <t>Freitag</t>
+  </si>
+  <si>
+    <t>Ibtissem</t>
+  </si>
+  <si>
+    <t>Donnerstag</t>
+  </si>
+  <si>
+    <t>Aydan</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Gulcin</t>
+  </si>
+  <si>
+    <t>Dinstag</t>
+  </si>
+  <si>
+    <t>Masoumeh</t>
+  </si>
+  <si>
+    <t>Svitlana</t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
+    <t>Eike</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-DE,1]hh:mm;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +114,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,9 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBCF866-F010-5D4D-977C-F0CEC3C34B33}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,73 +504,703 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C8" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="C9" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C19" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C21" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C27" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
+      <c r="C48" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/stundenplan.xlsx
+++ b/stundenplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masoumeh/PycharmProjects/MeetUpPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779BB9A-33CD-824D-818B-9DD9B7256261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451D6817-1DB2-E142-B999-43227CA06CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="1820" windowWidth="28040" windowHeight="16180" xr2:uid="{BA891477-1CC8-1B4C-AA7F-14F6FC78A2D1}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{BA891477-1CC8-1B4C-AA7F-14F6FC78A2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -484,7 +483,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D51"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1067,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C42" s="3">
         <v>0.65625</v>
@@ -1082,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C43" s="3">
         <v>0.72916666666666663</v>
